--- a/工作计划_Evance.xlsx
+++ b/工作计划_Evance.xlsx
@@ -16,17 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>本周任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下周计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -453,33 +449,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="2" max="2" width="69.75" customWidth="1"/>
     <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="31.25" customWidth="1"/>
-    <col min="5" max="5" width="66.5" customWidth="1"/>
+    <col min="4" max="4" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.5" customHeight="1">
+    <row r="1" spans="1:4" ht="34.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -488,136 +482,121 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.95" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.95" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4" ht="15.95" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4" ht="15.95" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4" ht="15.95" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4" ht="15.95" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4" ht="15.95" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:4" ht="15.95" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:4" ht="15.95" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4" ht="15.95" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4" ht="15.95" customHeight="1">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:4" ht="15.95" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/工作计划_Evance.xlsx
+++ b/工作计划_Evance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>本周任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未找到清晰版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>督促画手完成卡框，卡背。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +59,34 @@
   </si>
   <si>
     <t>跟踪野外图外包制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成4套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马匹制作中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5套5星卡文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +476,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -494,7 +518,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.95" customHeight="1">
@@ -502,56 +526,68 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.95" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.95" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.95" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.95" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.95" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
